--- a/document/excel_upload_자료/TBL_EXP_VALUATION_REFERENCE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_VALUATION_REFERENCE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD6D72-1FA8-414B-BFEF-7C0F234FB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61824FEB-2757-4BAC-A90A-5648C7E77012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>비상장주식평가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -965,40 +989,40 @@
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
